--- a/tspi/ciclo-1/logt2/forma-logt2-20106065.xlsx
+++ b/tspi/ciclo-1/logt2/forma-logt2-20106065.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Participe en la creación del borrador #1 del diagrama de caso s de uso, y del borrador #1 de los escenarios.</t>
+  </si>
+  <si>
+    <t>Experimiento redmine #1; Instalarlo y configurarlo.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Presentación de la semana 2 ciclo 1.</t>
   </si>
 </sst>
 </file>
@@ -185,10 +197,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
@@ -235,21 +247,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H6" activeCellId="0" pane="topLeft" sqref="H6"/>
+      <selection activeCell="E10" activeCellId="0" pane="topLeft" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="12.2901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.1137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.2705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="17.5019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="12.2901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="48.4039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="12.2901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="12.3529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.1921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.321568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="12.3529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="48.6392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="6" width="12.3529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1">
@@ -268,7 +280,7 @@
       </c>
       <c r="G1" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -324,7 +336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="6">
       <c r="A6" s="1" t="n">
         <v>41917</v>
       </c>
@@ -343,6 +355,66 @@
       </c>
       <c r="F6" s="4" t="n">
         <v>7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="n">
+        <v>41918</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.470138888888889</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <f aca="false">((HOUR(C7)-HOUR(B7))*60)+(MINUTE(C7)-MINUTE(B7))-D7</f>
+        <v>112</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="n">
+        <v>41921</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.631944444444444</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <f aca="false">((HOUR(C8)-HOUR(B8))*60)+(MINUTE(C8)-MINUTE(B8))-D8</f>
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
+      <c r="E10" s="3" t="n">
+        <f aca="false">SUM(E6:E8)/60</f>
+        <v>3.83333333333333</v>
       </c>
     </row>
   </sheetData>
